--- a/3_新gene和EMT数据库基因比较/新旧数据比较.xlsx
+++ b/3_新gene和EMT数据库基因比较/新旧数据比较.xlsx
@@ -25,21 +25,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>212 common elements in "List 1" and "List 2":</t>
-  </si>
-  <si>
-    <t>1027 elements included exclusively in "List 2":</t>
-  </si>
-  <si>
-    <t>165 elements included exclusively in "List 1":</t>
-  </si>
-  <si>
     <t>List2-List1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>List1-List2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211 common elements in "List 1" and "List 2":</t>
+  </si>
+  <si>
+    <t>166 elements included exclusively in "List 1":</t>
+  </si>
+  <si>
+    <t>1018 elements included exclusively in "List 2":</t>
   </si>
 </sst>
 </file>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1029"/>
+  <dimension ref="A1:C1020"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2:B1020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -382,21 +382,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1097,7 +1097,7 @@
         <v>3678</v>
       </c>
       <c r="B66">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C66">
         <v>4316</v>
@@ -1108,7 +1108,7 @@
         <v>3688</v>
       </c>
       <c r="B67">
-        <v>1112</v>
+        <v>1129</v>
       </c>
       <c r="C67">
         <v>4322</v>
@@ -1119,7 +1119,7 @@
         <v>3717</v>
       </c>
       <c r="B68">
-        <v>1129</v>
+        <v>1153</v>
       </c>
       <c r="C68">
         <v>4478</v>
@@ -1130,7 +1130,7 @@
         <v>3845</v>
       </c>
       <c r="B69">
-        <v>1153</v>
+        <v>1196</v>
       </c>
       <c r="C69">
         <v>4486</v>
@@ -1141,7 +1141,7 @@
         <v>3897</v>
       </c>
       <c r="B70">
-        <v>1196</v>
+        <v>1234</v>
       </c>
       <c r="C70">
         <v>4583</v>
@@ -1152,7 +1152,7 @@
         <v>3934</v>
       </c>
       <c r="B71">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C71">
         <v>4613</v>
@@ -1163,7 +1163,7 @@
         <v>3952</v>
       </c>
       <c r="B72">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C72">
         <v>4763</v>
@@ -1174,7 +1174,7 @@
         <v>4015</v>
       </c>
       <c r="B73">
-        <v>1236</v>
+        <v>1272</v>
       </c>
       <c r="C73">
         <v>4782</v>
@@ -1185,7 +1185,7 @@
         <v>4017</v>
       </c>
       <c r="B74">
-        <v>1272</v>
+        <v>1366</v>
       </c>
       <c r="C74">
         <v>5052</v>
@@ -1196,7 +1196,7 @@
         <v>4072</v>
       </c>
       <c r="B75">
-        <v>1366</v>
+        <v>1385</v>
       </c>
       <c r="C75">
         <v>5110</v>
@@ -1207,7 +1207,7 @@
         <v>4087</v>
       </c>
       <c r="B76">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="C76">
         <v>5141</v>
@@ -1218,7 +1218,7 @@
         <v>4088</v>
       </c>
       <c r="B77">
-        <v>1387</v>
+        <v>1398</v>
       </c>
       <c r="C77">
         <v>5329</v>
@@ -1229,7 +1229,7 @@
         <v>4089</v>
       </c>
       <c r="B78">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C78">
         <v>5581</v>
@@ -1240,7 +1240,7 @@
         <v>4092</v>
       </c>
       <c r="B79">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C79">
         <v>5604</v>
@@ -1251,7 +1251,7 @@
         <v>4162</v>
       </c>
       <c r="B80">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C80">
         <v>5652</v>
@@ -1262,7 +1262,7 @@
         <v>4233</v>
       </c>
       <c r="B81">
-        <v>1401</v>
+        <v>1410</v>
       </c>
       <c r="C81">
         <v>5653</v>
@@ -1273,7 +1273,7 @@
         <v>4313</v>
       </c>
       <c r="B82">
-        <v>1410</v>
+        <v>1437</v>
       </c>
       <c r="C82">
         <v>5764</v>
@@ -1284,7 +1284,7 @@
         <v>4314</v>
       </c>
       <c r="B83">
-        <v>1437</v>
+        <v>1464</v>
       </c>
       <c r="C83">
         <v>5784</v>
@@ -1295,7 +1295,7 @@
         <v>4318</v>
       </c>
       <c r="B84">
-        <v>1464</v>
+        <v>1491</v>
       </c>
       <c r="C84">
         <v>5803</v>
@@ -1306,7 +1306,7 @@
         <v>4323</v>
       </c>
       <c r="B85">
-        <v>1491</v>
+        <v>1514</v>
       </c>
       <c r="C85">
         <v>5894</v>
@@ -1317,7 +1317,7 @@
         <v>4488</v>
       </c>
       <c r="B86">
-        <v>1514</v>
+        <v>1545</v>
       </c>
       <c r="C86">
         <v>5962</v>
@@ -1328,7 +1328,7 @@
         <v>4582</v>
       </c>
       <c r="B87">
-        <v>1545</v>
+        <v>1577</v>
       </c>
       <c r="C87">
         <v>5998</v>
@@ -1339,7 +1339,7 @@
         <v>4585</v>
       </c>
       <c r="B88">
-        <v>1577</v>
+        <v>1746</v>
       </c>
       <c r="C88">
         <v>6383</v>
@@ -1350,7 +1350,7 @@
         <v>4609</v>
       </c>
       <c r="B89">
-        <v>1746</v>
+        <v>1786</v>
       </c>
       <c r="C89">
         <v>6440</v>
@@ -1361,7 +1361,7 @@
         <v>4790</v>
       </c>
       <c r="B90">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="C90">
         <v>6624</v>
@@ -1372,7 +1372,7 @@
         <v>4851</v>
       </c>
       <c r="B91">
-        <v>1789</v>
+        <v>1856</v>
       </c>
       <c r="C91">
         <v>6651</v>
@@ -1383,7 +1383,7 @@
         <v>4853</v>
       </c>
       <c r="B92">
-        <v>1856</v>
+        <v>1869</v>
       </c>
       <c r="C92">
         <v>6768</v>
@@ -1394,7 +1394,7 @@
         <v>4904</v>
       </c>
       <c r="B93">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="C93">
         <v>6909</v>
@@ -1405,7 +1405,7 @@
         <v>4920</v>
       </c>
       <c r="B94">
-        <v>1871</v>
+        <v>1936</v>
       </c>
       <c r="C94">
         <v>6926</v>
@@ -1416,7 +1416,7 @@
         <v>4921</v>
       </c>
       <c r="B95">
-        <v>1936</v>
+        <v>1948</v>
       </c>
       <c r="C95">
         <v>6932</v>
@@ -1427,7 +1427,7 @@
         <v>5058</v>
       </c>
       <c r="B96">
-        <v>1948</v>
+        <v>1965</v>
       </c>
       <c r="C96">
         <v>6943</v>
@@ -1438,7 +1438,7 @@
         <v>5076</v>
       </c>
       <c r="B97">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="C97">
         <v>6997</v>
@@ -1449,7 +1449,7 @@
         <v>5155</v>
       </c>
       <c r="B98">
-        <v>1969</v>
+        <v>1977</v>
       </c>
       <c r="C98">
         <v>7003</v>
@@ -1460,7 +1460,7 @@
         <v>5290</v>
       </c>
       <c r="B99">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="C99">
         <v>7024</v>
@@ -1471,7 +1471,7 @@
         <v>5300</v>
       </c>
       <c r="B100">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="C100">
         <v>7043</v>
@@ -1482,7 +1482,7 @@
         <v>5460</v>
       </c>
       <c r="B101">
-        <v>1984</v>
+        <v>1994</v>
       </c>
       <c r="C101">
         <v>7074</v>
@@ -1493,7 +1493,7 @@
         <v>5468</v>
       </c>
       <c r="B102">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="C102">
         <v>7076</v>
@@ -1504,7 +1504,7 @@
         <v>5578</v>
       </c>
       <c r="B103">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C103">
         <v>7447</v>
@@ -1515,7 +1515,7 @@
         <v>5594</v>
       </c>
       <c r="B104">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="C104">
         <v>7448</v>
@@ -1526,7 +1526,7 @@
         <v>5595</v>
       </c>
       <c r="B105">
-        <v>2023</v>
+        <v>2033</v>
       </c>
       <c r="C105">
         <v>7475</v>
@@ -1537,7 +1537,7 @@
         <v>5598</v>
       </c>
       <c r="B106">
-        <v>2033</v>
+        <v>2043</v>
       </c>
       <c r="C106">
         <v>7490</v>
@@ -1548,7 +1548,7 @@
         <v>5599</v>
       </c>
       <c r="B107">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="C107">
         <v>7528</v>
@@ -1559,7 +1559,7 @@
         <v>5728</v>
       </c>
       <c r="B108">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="C108">
         <v>7764</v>
@@ -1570,7 +1570,7 @@
         <v>5743</v>
       </c>
       <c r="B109">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="C109">
         <v>7791</v>
@@ -1581,7 +1581,7 @@
         <v>5744</v>
       </c>
       <c r="B110">
-        <v>2049</v>
+        <v>2059</v>
       </c>
       <c r="C110">
         <v>8313</v>
@@ -1592,7 +1592,7 @@
         <v>5747</v>
       </c>
       <c r="B111">
-        <v>2059</v>
+        <v>2078</v>
       </c>
       <c r="C111">
         <v>8482</v>
@@ -1603,7 +1603,7 @@
         <v>5879</v>
       </c>
       <c r="B112">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="C112">
         <v>8487</v>
@@ -1614,7 +1614,7 @@
         <v>6093</v>
       </c>
       <c r="B113">
-        <v>2081</v>
+        <v>2100</v>
       </c>
       <c r="C113">
         <v>8650</v>
@@ -1625,7 +1625,7 @@
         <v>6275</v>
       </c>
       <c r="B114">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="C114">
         <v>8668</v>
@@ -1636,7 +1636,7 @@
         <v>6374</v>
       </c>
       <c r="B115">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="C115">
         <v>8838</v>
@@ -1647,7 +1647,7 @@
         <v>6382</v>
       </c>
       <c r="B116">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="C116">
         <v>9032</v>
@@ -1658,7 +1658,7 @@
         <v>6387</v>
       </c>
       <c r="B117">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="C117">
         <v>9113</v>
@@ -1669,7 +1669,7 @@
         <v>6469</v>
       </c>
       <c r="B118">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="C118">
         <v>9241</v>
@@ -1680,7 +1680,7 @@
         <v>6493</v>
       </c>
       <c r="B119">
-        <v>2115</v>
+        <v>2147</v>
       </c>
       <c r="C119">
         <v>9365</v>
@@ -1691,7 +1691,7 @@
         <v>6495</v>
       </c>
       <c r="B120">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="C120">
         <v>9475</v>
@@ -1702,7 +1702,7 @@
         <v>6591</v>
       </c>
       <c r="B121">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="C121">
         <v>9500</v>
@@ -1713,7 +1713,7 @@
         <v>6615</v>
       </c>
       <c r="B122">
-        <v>2152</v>
+        <v>2194</v>
       </c>
       <c r="C122">
         <v>9723</v>
@@ -1724,7 +1724,7 @@
         <v>6662</v>
       </c>
       <c r="B123">
-        <v>2194</v>
+        <v>2202</v>
       </c>
       <c r="C123">
         <v>9846</v>
@@ -1735,7 +1735,7 @@
         <v>6667</v>
       </c>
       <c r="B124">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="C124">
         <v>9953</v>
@@ -1746,7 +1746,7 @@
         <v>6696</v>
       </c>
       <c r="B125">
-        <v>2203</v>
+        <v>2220</v>
       </c>
       <c r="C125">
         <v>10013</v>
@@ -1757,7 +1757,7 @@
         <v>6700</v>
       </c>
       <c r="B126">
-        <v>2220</v>
+        <v>2254</v>
       </c>
       <c r="C126">
         <v>10049</v>
@@ -1768,7 +1768,7 @@
         <v>6714</v>
       </c>
       <c r="B127">
-        <v>2254</v>
+        <v>2289</v>
       </c>
       <c r="C127">
         <v>10454</v>
@@ -1779,7 +1779,7 @@
         <v>6722</v>
       </c>
       <c r="B128">
-        <v>2289</v>
+        <v>2303</v>
       </c>
       <c r="C128">
         <v>10516</v>
@@ -1790,10 +1790,10 @@
         <v>6774</v>
       </c>
       <c r="B129">
-        <v>2303</v>
+        <v>2309</v>
       </c>
       <c r="C129">
-        <v>10637</v>
+        <v>10630</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -1801,10 +1801,10 @@
         <v>6776</v>
       </c>
       <c r="B130">
-        <v>2309</v>
+        <v>2316</v>
       </c>
       <c r="C130">
-        <v>10657</v>
+        <v>10637</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -1812,10 +1812,10 @@
         <v>6777</v>
       </c>
       <c r="B131">
-        <v>2316</v>
+        <v>2319</v>
       </c>
       <c r="C131">
-        <v>10855</v>
+        <v>10657</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -1823,10 +1823,10 @@
         <v>6790</v>
       </c>
       <c r="B132">
-        <v>2319</v>
+        <v>2332</v>
       </c>
       <c r="C132">
-        <v>11187</v>
+        <v>10855</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -1834,10 +1834,10 @@
         <v>6794</v>
       </c>
       <c r="B133">
-        <v>2332</v>
+        <v>2492</v>
       </c>
       <c r="C133">
-        <v>22822</v>
+        <v>11187</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -1845,10 +1845,10 @@
         <v>6868</v>
       </c>
       <c r="B134">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="C134">
-        <v>22938</v>
+        <v>22822</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -1856,10 +1856,10 @@
         <v>6885</v>
       </c>
       <c r="B135">
-        <v>2494</v>
+        <v>2526</v>
       </c>
       <c r="C135">
-        <v>23129</v>
+        <v>22938</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -1867,10 +1867,10 @@
         <v>6925</v>
       </c>
       <c r="B136">
-        <v>2526</v>
+        <v>2535</v>
       </c>
       <c r="C136">
-        <v>23246</v>
+        <v>23129</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -1878,10 +1878,10 @@
         <v>6929</v>
       </c>
       <c r="B137">
-        <v>2535</v>
+        <v>2597</v>
       </c>
       <c r="C137">
-        <v>23385</v>
+        <v>23246</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -1889,10 +1889,10 @@
         <v>6935</v>
       </c>
       <c r="B138">
-        <v>2597</v>
+        <v>2623</v>
       </c>
       <c r="C138">
-        <v>25794</v>
+        <v>23385</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -1900,10 +1900,10 @@
         <v>7039</v>
       </c>
       <c r="B139">
-        <v>2623</v>
+        <v>2627</v>
       </c>
       <c r="C139">
-        <v>25800</v>
+        <v>25794</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -1911,10 +1911,10 @@
         <v>7040</v>
       </c>
       <c r="B140">
-        <v>2627</v>
+        <v>2662</v>
       </c>
       <c r="C140">
-        <v>25875</v>
+        <v>25800</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -1922,10 +1922,10 @@
         <v>7041</v>
       </c>
       <c r="B141">
-        <v>2662</v>
+        <v>2688</v>
       </c>
       <c r="C141">
-        <v>27076</v>
+        <v>25875</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -1933,10 +1933,10 @@
         <v>7042</v>
       </c>
       <c r="B142">
-        <v>2688</v>
+        <v>2705</v>
       </c>
       <c r="C142">
-        <v>28984</v>
+        <v>27076</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -1944,10 +1944,10 @@
         <v>7046</v>
       </c>
       <c r="B143">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="C143">
-        <v>51053</v>
+        <v>28984</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -1955,10 +1955,10 @@
         <v>7049</v>
       </c>
       <c r="B144">
-        <v>2706</v>
+        <v>2719</v>
       </c>
       <c r="C144">
-        <v>51474</v>
+        <v>51053</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -1966,10 +1966,10 @@
         <v>7052</v>
       </c>
       <c r="B145">
-        <v>2719</v>
+        <v>2735</v>
       </c>
       <c r="C145">
-        <v>54778</v>
+        <v>51474</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -1977,10 +1977,10 @@
         <v>7056</v>
       </c>
       <c r="B146">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="C146">
-        <v>54810</v>
+        <v>54778</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -1988,10 +1988,10 @@
         <v>7124</v>
       </c>
       <c r="B147">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="C147">
-        <v>55818</v>
+        <v>54810</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -1999,10 +1999,10 @@
         <v>7157</v>
       </c>
       <c r="B148">
-        <v>2739</v>
+        <v>2744</v>
       </c>
       <c r="C148">
-        <v>55824</v>
+        <v>55818</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2010,10 +2010,10 @@
         <v>7161</v>
       </c>
       <c r="B149">
-        <v>2744</v>
+        <v>2801</v>
       </c>
       <c r="C149">
-        <v>56998</v>
+        <v>55824</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2021,10 +2021,10 @@
         <v>7227</v>
       </c>
       <c r="B150">
-        <v>2801</v>
+        <v>2821</v>
       </c>
       <c r="C150">
-        <v>57057</v>
+        <v>56998</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2032,10 +2032,10 @@
         <v>7291</v>
       </c>
       <c r="B151">
-        <v>2821</v>
+        <v>2854</v>
       </c>
       <c r="C151">
-        <v>57118</v>
+        <v>57057</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2043,10 +2043,10 @@
         <v>7421</v>
       </c>
       <c r="B152">
-        <v>2854</v>
+        <v>2896</v>
       </c>
       <c r="C152">
-        <v>57496</v>
+        <v>57118</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2054,10 +2054,10 @@
         <v>7422</v>
       </c>
       <c r="B153">
-        <v>2896</v>
+        <v>3014</v>
       </c>
       <c r="C153">
-        <v>57669</v>
+        <v>57496</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2065,10 +2065,10 @@
         <v>7430</v>
       </c>
       <c r="B154">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="C154">
-        <v>58191</v>
+        <v>57669</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2076,10 +2076,10 @@
         <v>7431</v>
       </c>
       <c r="B155">
-        <v>3015</v>
+        <v>3065</v>
       </c>
       <c r="C155">
-        <v>80004</v>
+        <v>58191</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2087,10 +2087,10 @@
         <v>7471</v>
       </c>
       <c r="B156">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="C156">
-        <v>80237</v>
+        <v>80004</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -2098,10 +2098,10 @@
         <v>7474</v>
       </c>
       <c r="B157">
-        <v>3066</v>
+        <v>3090</v>
       </c>
       <c r="C157">
-        <v>84695</v>
+        <v>80237</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2109,10 +2109,10 @@
         <v>7534</v>
       </c>
       <c r="B158">
-        <v>3090</v>
+        <v>3092</v>
       </c>
       <c r="C158">
-        <v>90161</v>
+        <v>84695</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2120,10 +2120,10 @@
         <v>7852</v>
       </c>
       <c r="B159">
-        <v>3092</v>
+        <v>3099</v>
       </c>
       <c r="C159">
-        <v>91862</v>
+        <v>90161</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2131,10 +2131,10 @@
         <v>8061</v>
       </c>
       <c r="B160">
-        <v>3099</v>
+        <v>3164</v>
       </c>
       <c r="C160">
-        <v>94025</v>
+        <v>91862</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2142,10 +2142,10 @@
         <v>8091</v>
       </c>
       <c r="B161">
-        <v>3164</v>
+        <v>3170</v>
       </c>
       <c r="C161">
-        <v>152189</v>
+        <v>94025</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2153,10 +2153,10 @@
         <v>8312</v>
       </c>
       <c r="B162">
-        <v>3170</v>
+        <v>3182</v>
       </c>
       <c r="C162">
-        <v>284217</v>
+        <v>152189</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -2164,10 +2164,10 @@
         <v>8626</v>
       </c>
       <c r="B163">
-        <v>3182</v>
+        <v>3205</v>
       </c>
       <c r="C163">
-        <v>406928</v>
+        <v>284217</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2175,10 +2175,10 @@
         <v>8828</v>
       </c>
       <c r="B164">
-        <v>3205</v>
+        <v>3209</v>
       </c>
       <c r="C164">
-        <v>406941</v>
+        <v>406928</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -2186,10 +2186,10 @@
         <v>8839</v>
       </c>
       <c r="B165">
-        <v>3209</v>
+        <v>3235</v>
       </c>
       <c r="C165">
-        <v>407039</v>
+        <v>406941</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2197,10 +2197,10 @@
         <v>8842</v>
       </c>
       <c r="B166">
-        <v>3235</v>
+        <v>3276</v>
       </c>
       <c r="C166">
-        <v>407042</v>
+        <v>407039</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2208,10 +2208,10 @@
         <v>9076</v>
       </c>
       <c r="B167">
-        <v>3276</v>
+        <v>3280</v>
       </c>
       <c r="C167">
-        <v>100506658</v>
+        <v>407042</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -2219,7 +2219,10 @@
         <v>9112</v>
       </c>
       <c r="B168">
-        <v>3280</v>
+        <v>3297</v>
+      </c>
+      <c r="C168">
+        <v>100506658</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -2227,7 +2230,7 @@
         <v>9314</v>
       </c>
       <c r="B169">
-        <v>3297</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -2235,7 +2238,7 @@
         <v>9372</v>
       </c>
       <c r="B170">
-        <v>3309</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -2243,7 +2246,7 @@
         <v>9839</v>
       </c>
       <c r="B171">
-        <v>3346</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -2251,7 +2254,7 @@
         <v>10009</v>
       </c>
       <c r="B172">
-        <v>3394</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -2259,7 +2262,7 @@
         <v>10397</v>
       </c>
       <c r="B173">
-        <v>3479</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -2267,7 +2270,7 @@
         <v>10413</v>
       </c>
       <c r="B174">
-        <v>3490</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -2275,4393 +2278,4345 @@
         <v>10628</v>
       </c>
       <c r="B175">
-        <v>3565</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>10630</v>
+        <v>10631</v>
       </c>
       <c r="B176">
-        <v>3569</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>10631</v>
+        <v>11279</v>
       </c>
       <c r="B177">
-        <v>3576</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>11279</v>
+        <v>23513</v>
       </c>
       <c r="B178">
-        <v>3579</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>23513</v>
+        <v>25937</v>
       </c>
       <c r="B179">
-        <v>3589</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>25937</v>
+        <v>26585</v>
       </c>
       <c r="B180">
-        <v>3605</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>26585</v>
+        <v>29126</v>
       </c>
       <c r="B181">
-        <v>3607</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>29126</v>
+        <v>51176</v>
       </c>
       <c r="B182">
-        <v>3667</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>51176</v>
+        <v>54845</v>
       </c>
       <c r="B183">
-        <v>3673</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>54845</v>
+        <v>54910</v>
       </c>
       <c r="B184">
-        <v>3675</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>54910</v>
+        <v>55914</v>
       </c>
       <c r="B185">
-        <v>3685</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>55914</v>
+        <v>56288</v>
       </c>
       <c r="B186">
-        <v>3694</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>56288</v>
+        <v>56648</v>
       </c>
       <c r="B187">
-        <v>3718</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>56648</v>
+        <v>56649</v>
       </c>
       <c r="B188">
-        <v>3720</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>56649</v>
+        <v>57504</v>
       </c>
       <c r="B189">
-        <v>3725</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>57504</v>
+        <v>57591</v>
       </c>
       <c r="B190">
-        <v>3726</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>57591</v>
+        <v>89780</v>
       </c>
       <c r="B191">
-        <v>3732</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>89780</v>
+        <v>92140</v>
       </c>
       <c r="B192">
-        <v>3783</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>92140</v>
+        <v>94234</v>
       </c>
       <c r="B193">
-        <v>3838</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>94234</v>
+        <v>117581</v>
       </c>
       <c r="B194">
-        <v>3855</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>117581</v>
+        <v>152007</v>
       </c>
       <c r="B195">
-        <v>3856</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>152007</v>
+        <v>220001</v>
       </c>
       <c r="B196">
-        <v>3872</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>220001</v>
+        <v>406907</v>
       </c>
       <c r="B197">
-        <v>3875</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>406907</v>
+        <v>406949</v>
       </c>
       <c r="B198">
-        <v>3918</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>406949</v>
+        <v>406968</v>
       </c>
       <c r="B199">
-        <v>3927</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>406968</v>
+        <v>406969</v>
       </c>
       <c r="B200">
-        <v>3956</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>406969</v>
+        <v>406983</v>
       </c>
       <c r="B201">
-        <v>3958</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>406983</v>
+        <v>406984</v>
       </c>
       <c r="B202">
-        <v>3965</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>406984</v>
+        <v>406985</v>
       </c>
       <c r="B203">
-        <v>3976</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>406985</v>
+        <v>406988</v>
       </c>
       <c r="B204">
-        <v>4000</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>406988</v>
+        <v>406991</v>
       </c>
       <c r="B205">
-        <v>4001</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>406991</v>
+        <v>407006</v>
       </c>
       <c r="B206">
-        <v>4052</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>407006</v>
+        <v>407007</v>
       </c>
       <c r="B207">
-        <v>4067</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>407007</v>
+        <v>407010</v>
       </c>
       <c r="B208">
-        <v>4170</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>407010</v>
+        <v>407029</v>
       </c>
       <c r="B209">
-        <v>4193</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>407029</v>
+        <v>407040</v>
       </c>
       <c r="B210">
-        <v>4194</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>407040</v>
+        <v>407046</v>
       </c>
       <c r="B211">
-        <v>4205</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>407046</v>
+        <v>554210</v>
       </c>
       <c r="B212">
-        <v>4209</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>554210</v>
+        <v>100133941</v>
       </c>
       <c r="B213">
-        <v>4283</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>100133941</v>
-      </c>
       <c r="B214">
-        <v>4286</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B215">
-        <v>4297</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B216">
-        <v>4300</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B217">
-        <v>4303</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B218">
-        <v>4312</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B219">
-        <v>4317</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B220">
-        <v>4320</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B221">
-        <v>4327</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B222">
-        <v>4591</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B223">
-        <v>4602</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B224">
-        <v>4605</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225">
-        <v>4615</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226">
-        <v>4633</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227">
-        <v>4680</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228">
-        <v>4691</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229">
-        <v>4771</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230">
-        <v>4792</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231">
-        <v>4825</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B232">
-        <v>4830</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B233">
-        <v>4838</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B234">
-        <v>4854</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B235">
-        <v>4855</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B236">
-        <v>4856</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B237">
-        <v>4878</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B238">
-        <v>4915</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B239">
-        <v>4916</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B240">
-        <v>4919</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B241">
-        <v>4925</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242">
-        <v>4988</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B243">
-        <v>5008</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244">
-        <v>5029</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B245">
-        <v>5037</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246">
-        <v>5045</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247">
-        <v>5054</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B248">
-        <v>5074</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B249">
-        <v>5087</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B250">
-        <v>5090</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B251">
-        <v>5093</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B252">
-        <v>5101</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B253">
-        <v>5122</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B254">
-        <v>5133</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B255">
-        <v>5159</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B256">
-        <v>5174</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B257">
-        <v>5176</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B258">
-        <v>5217</v>
+        <v>5295</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B259">
-        <v>5218</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B260">
-        <v>5228</v>
+        <v>5321</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B261">
-        <v>5243</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B262">
-        <v>5274</v>
+        <v>5328</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B263">
-        <v>5295</v>
+        <v>5358</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B264">
-        <v>5310</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B265">
-        <v>5321</v>
+        <v>5443</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B266">
-        <v>5326</v>
+        <v>5511</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B267">
-        <v>5328</v>
+        <v>5524</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B268">
-        <v>5358</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B269">
-        <v>5396</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B270">
-        <v>5443</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B271">
-        <v>5511</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B272">
-        <v>5524</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B273">
-        <v>5562</v>
+        <v>5629</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B274">
-        <v>5563</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B275">
-        <v>5584</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B276">
-        <v>5588</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B277">
-        <v>5626</v>
+        <v>5915</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B278">
-        <v>5629</v>
+        <v>5921</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B279">
-        <v>5777</v>
+        <v>5925</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B280">
-        <v>5781</v>
+        <v>5927</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B281">
-        <v>5806</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B282">
-        <v>5915</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B283">
-        <v>5921</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B284">
-        <v>5925</v>
+        <v>6097</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B285">
-        <v>5927</v>
+        <v>6098</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B286">
-        <v>5948</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B287">
-        <v>5970</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B288">
-        <v>6050</v>
+        <v>6273</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B289">
-        <v>6097</v>
+        <v>6277</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B290">
-        <v>6098</v>
+        <v>6279</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B291">
-        <v>6198</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B292">
-        <v>6249</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B293">
-        <v>6273</v>
+        <v>6299</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B294">
-        <v>6277</v>
+        <v>6304</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B295">
-        <v>6279</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B296">
-        <v>6280</v>
+        <v>6318</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B297">
-        <v>6286</v>
+        <v>6347</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B298">
-        <v>6299</v>
+        <v>6348</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B299">
-        <v>6304</v>
+        <v>6352</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B300">
-        <v>6310</v>
+        <v>6362</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B301">
-        <v>6318</v>
+        <v>6363</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B302">
-        <v>6347</v>
+        <v>6364</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B303">
-        <v>6348</v>
+        <v>6366</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B304">
-        <v>6352</v>
+        <v>6367</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B305">
-        <v>6362</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B306">
-        <v>6363</v>
+        <v>6376</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B307">
-        <v>6364</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B308">
-        <v>6366</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B309">
-        <v>6367</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B310">
-        <v>6370</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B311">
-        <v>6376</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B312">
-        <v>6423</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B313">
-        <v>6464</v>
+        <v>6497</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B314">
-        <v>6477</v>
+        <v>6498</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B315">
-        <v>6478</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B316">
-        <v>6480</v>
+        <v>6502</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B317">
-        <v>6489</v>
+        <v>6513</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B318">
-        <v>6497</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B319">
-        <v>6498</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B320">
-        <v>6500</v>
+        <v>6657</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B321">
-        <v>6502</v>
+        <v>6658</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B322">
-        <v>6513</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B323">
-        <v>6581</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B324">
-        <v>6586</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B325">
-        <v>6648</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B326">
-        <v>6657</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B327">
-        <v>6658</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B328">
-        <v>6659</v>
+        <v>6786</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B329">
-        <v>6660</v>
+        <v>6862</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B330">
-        <v>6695</v>
+        <v>6901</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B331">
-        <v>6717</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B332">
-        <v>6720</v>
+        <v>7026</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B333">
-        <v>6772</v>
+        <v>7048</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B334">
-        <v>6786</v>
+        <v>7077</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B335">
-        <v>6862</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B336">
-        <v>6901</v>
+        <v>7082</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B337">
-        <v>7015</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B338">
-        <v>7026</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B339">
-        <v>7048</v>
+        <v>7145</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B340">
-        <v>7077</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B341">
-        <v>7078</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B342">
-        <v>7082</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B343">
-        <v>7088</v>
+        <v>7182</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B344">
-        <v>7099</v>
+        <v>7224</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B345">
-        <v>7145</v>
+        <v>7248</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B346">
-        <v>7158</v>
+        <v>7249</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B347">
-        <v>7159</v>
+        <v>7262</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B348">
-        <v>7162</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B349">
-        <v>7182</v>
+        <v>7286</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B350">
-        <v>7224</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B351">
-        <v>7248</v>
+        <v>7298</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B352">
-        <v>7249</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B353">
-        <v>7262</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B354">
-        <v>7284</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B355">
-        <v>7286</v>
+        <v>7415</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B356">
-        <v>7295</v>
+        <v>7428</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B357">
-        <v>7298</v>
+        <v>7494</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B358">
-        <v>7301</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B359">
-        <v>7347</v>
+        <v>7538</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B360">
-        <v>7403</v>
+        <v>7593</v>
       </c>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B361">
-        <v>7415</v>
+        <v>7702</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B362">
-        <v>7428</v>
+        <v>7703</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B363">
-        <v>7494</v>
+        <v>8038</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B364">
-        <v>7532</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B365">
-        <v>7538</v>
+        <v>8202</v>
       </c>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B366">
-        <v>7593</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B367">
-        <v>7702</v>
+        <v>8243</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B368">
-        <v>7703</v>
+        <v>8324</v>
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B369">
-        <v>8038</v>
+        <v>8405</v>
       </c>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B370">
-        <v>8073</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B371">
-        <v>8202</v>
+        <v>8451</v>
       </c>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B372">
-        <v>8239</v>
+        <v>8452</v>
       </c>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B373">
-        <v>8243</v>
+        <v>8493</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B374">
-        <v>8324</v>
+        <v>8503</v>
       </c>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B375">
-        <v>8405</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B376">
-        <v>8445</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B377">
-        <v>8451</v>
+        <v>8553</v>
       </c>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B378">
-        <v>8452</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B379">
-        <v>8493</v>
+        <v>8614</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B380">
-        <v>8503</v>
+        <v>8660</v>
       </c>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B381">
-        <v>8517</v>
+        <v>8714</v>
       </c>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B382">
-        <v>8549</v>
+        <v>8726</v>
       </c>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B383">
-        <v>8553</v>
+        <v>8742</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B384">
-        <v>8600</v>
+        <v>8743</v>
       </c>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B385">
-        <v>8614</v>
+        <v>8792</v>
       </c>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B386">
-        <v>8660</v>
+        <v>8796</v>
       </c>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B387">
-        <v>8714</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B388">
-        <v>8726</v>
+        <v>8829</v>
       </c>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B389">
-        <v>8742</v>
+        <v>8841</v>
       </c>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B390">
-        <v>8743</v>
+        <v>8850</v>
       </c>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B391">
-        <v>8792</v>
+        <v>8856</v>
       </c>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B392">
-        <v>8796</v>
+        <v>8877</v>
       </c>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B393">
-        <v>8821</v>
+        <v>8878</v>
       </c>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B394">
-        <v>8829</v>
+        <v>8914</v>
       </c>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B395">
-        <v>8841</v>
+        <v>8945</v>
       </c>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B396">
-        <v>8850</v>
+        <v>8999</v>
       </c>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B397">
-        <v>8856</v>
+        <v>9021</v>
       </c>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B398">
-        <v>8877</v>
+        <v>9025</v>
       </c>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B399">
-        <v>8878</v>
+        <v>9051</v>
       </c>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B400">
-        <v>8914</v>
+        <v>9111</v>
       </c>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B401">
-        <v>8945</v>
+        <v>9126</v>
       </c>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B402">
-        <v>8999</v>
+        <v>9181</v>
       </c>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B403">
-        <v>9021</v>
+        <v>9208</v>
       </c>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B404">
-        <v>9025</v>
+        <v>9355</v>
       </c>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B405">
-        <v>9051</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B406">
-        <v>9111</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B407">
-        <v>9126</v>
+        <v>9420</v>
       </c>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B408">
-        <v>9181</v>
+        <v>9421</v>
       </c>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B409">
-        <v>9208</v>
+        <v>9423</v>
       </c>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B410">
-        <v>9355</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B411">
-        <v>9368</v>
+        <v>9444</v>
       </c>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B412">
-        <v>9370</v>
+        <v>9448</v>
       </c>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B413">
-        <v>9420</v>
+        <v>9451</v>
       </c>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B414">
-        <v>9421</v>
+        <v>9462</v>
       </c>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B415">
-        <v>9423</v>
+        <v>9480</v>
       </c>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B416">
-        <v>9429</v>
+        <v>9518</v>
       </c>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B417">
-        <v>9444</v>
+        <v>9531</v>
       </c>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B418">
-        <v>9448</v>
+        <v>9547</v>
       </c>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B419">
-        <v>9451</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B420">
-        <v>9462</v>
+        <v>9645</v>
       </c>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B421">
-        <v>9480</v>
+        <v>9686</v>
       </c>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B422">
-        <v>9518</v>
+        <v>9690</v>
       </c>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B423">
-        <v>9531</v>
+        <v>9759</v>
       </c>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B424">
-        <v>9547</v>
+        <v>9863</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B425">
-        <v>9600</v>
+        <v>9869</v>
       </c>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B426">
-        <v>9645</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B427">
-        <v>9686</v>
+        <v>9902</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B428">
-        <v>9690</v>
+        <v>9939</v>
       </c>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B429">
-        <v>9759</v>
+        <v>9965</v>
       </c>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B430">
-        <v>9863</v>
+        <v>9966</v>
       </c>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B431">
-        <v>9869</v>
+        <v>10014</v>
       </c>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B432">
-        <v>9891</v>
+        <v>10015</v>
       </c>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B433">
-        <v>9902</v>
+        <v>10023</v>
       </c>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B434">
-        <v>9939</v>
+        <v>10062</v>
       </c>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B435">
-        <v>9965</v>
+        <v>10131</v>
       </c>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B436">
-        <v>9966</v>
+        <v>10135</v>
       </c>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B437">
-        <v>10014</v>
+        <v>10146</v>
       </c>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B438">
-        <v>10015</v>
+        <v>10155</v>
       </c>
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B439">
-        <v>10023</v>
+        <v>10197</v>
       </c>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B440">
-        <v>10062</v>
+        <v>10232</v>
       </c>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B441">
-        <v>10131</v>
+        <v>10252</v>
       </c>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B442">
-        <v>10135</v>
+        <v>10253</v>
       </c>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B443">
-        <v>10146</v>
+        <v>10298</v>
       </c>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B444">
-        <v>10155</v>
+        <v>10365</v>
       </c>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B445">
-        <v>10197</v>
+        <v>10399</v>
       </c>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B446">
-        <v>10232</v>
+        <v>10447</v>
       </c>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B447">
-        <v>10252</v>
+        <v>10459</v>
       </c>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B448">
-        <v>10253</v>
+        <v>10460</v>
       </c>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B449">
-        <v>10286</v>
+        <v>10468</v>
       </c>
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B450">
-        <v>10298</v>
+        <v>10481</v>
       </c>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B451">
-        <v>10365</v>
+        <v>10551</v>
       </c>
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B452">
-        <v>10399</v>
+        <v>10563</v>
       </c>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B453">
-        <v>10447</v>
+        <v>10626</v>
       </c>
     </row>
     <row r="454" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B454">
-        <v>10459</v>
+        <v>10672</v>
       </c>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B455">
-        <v>10460</v>
+        <v>10763</v>
       </c>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B456">
-        <v>10468</v>
+        <v>10765</v>
       </c>
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B457">
-        <v>10481</v>
+        <v>10797</v>
       </c>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B458">
-        <v>10551</v>
+        <v>10803</v>
       </c>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B459">
-        <v>10563</v>
+        <v>10810</v>
       </c>
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B460">
-        <v>10626</v>
+        <v>10857</v>
       </c>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B461">
-        <v>10672</v>
+        <v>10859</v>
       </c>
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B462">
-        <v>10763</v>
+        <v>10891</v>
       </c>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B463">
-        <v>10765</v>
+        <v>10919</v>
       </c>
     </row>
     <row r="464" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B464">
-        <v>10797</v>
+        <v>10938</v>
       </c>
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B465">
-        <v>10803</v>
+        <v>10969</v>
       </c>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B466">
-        <v>10810</v>
+        <v>11040</v>
       </c>
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B467">
-        <v>10857</v>
+        <v>11149</v>
       </c>
     </row>
     <row r="468" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B468">
-        <v>10859</v>
+        <v>11156</v>
       </c>
     </row>
     <row r="469" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B469">
-        <v>10891</v>
+        <v>11167</v>
       </c>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B470">
-        <v>10919</v>
+        <v>11186</v>
       </c>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B471">
-        <v>10938</v>
+        <v>11326</v>
       </c>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B472">
-        <v>10969</v>
+        <v>11343</v>
       </c>
     </row>
     <row r="473" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B473">
-        <v>11040</v>
+        <v>11545</v>
       </c>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B474">
-        <v>11149</v>
+        <v>11651</v>
       </c>
     </row>
     <row r="475" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B475">
-        <v>11156</v>
+        <v>11835</v>
       </c>
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B476">
-        <v>11167</v>
+        <v>11920</v>
       </c>
     </row>
     <row r="477" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B477">
-        <v>11186</v>
+        <v>11925</v>
       </c>
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B478">
-        <v>11326</v>
+        <v>12162</v>
       </c>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B479">
-        <v>11343</v>
+        <v>12181</v>
       </c>
     </row>
     <row r="480" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B480">
-        <v>11545</v>
+        <v>12387</v>
       </c>
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B481">
-        <v>11651</v>
+        <v>12389</v>
       </c>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B482">
-        <v>11835</v>
+        <v>12428</v>
       </c>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B483">
-        <v>11920</v>
+        <v>12443</v>
       </c>
     </row>
     <row r="484" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B484">
-        <v>11925</v>
+        <v>12444</v>
       </c>
     </row>
     <row r="485" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B485">
-        <v>12162</v>
+        <v>12550</v>
       </c>
     </row>
     <row r="486" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B486">
-        <v>12181</v>
+        <v>12558</v>
       </c>
     </row>
     <row r="487" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B487">
-        <v>12387</v>
+        <v>12608</v>
       </c>
     </row>
     <row r="488" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B488">
-        <v>12389</v>
+        <v>12767</v>
       </c>
     </row>
     <row r="489" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B489">
-        <v>12428</v>
+        <v>12877</v>
       </c>
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B490">
-        <v>12443</v>
+        <v>12955</v>
       </c>
     </row>
     <row r="491" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B491">
-        <v>12444</v>
+        <v>13001</v>
       </c>
     </row>
     <row r="492" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B492">
-        <v>12550</v>
+        <v>13175</v>
       </c>
     </row>
     <row r="493" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B493">
-        <v>12558</v>
+        <v>13433</v>
       </c>
     </row>
     <row r="494" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B494">
-        <v>12608</v>
+        <v>13649</v>
       </c>
     </row>
     <row r="495" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B495">
-        <v>12767</v>
+        <v>13713</v>
       </c>
     </row>
     <row r="496" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B496">
-        <v>12877</v>
+        <v>14062</v>
       </c>
     </row>
     <row r="497" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B497">
-        <v>12955</v>
+        <v>14064</v>
       </c>
     </row>
     <row r="498" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B498">
-        <v>13001</v>
+        <v>14083</v>
       </c>
     </row>
     <row r="499" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B499">
-        <v>13175</v>
+        <v>14114</v>
       </c>
     </row>
     <row r="500" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B500">
-        <v>13433</v>
+        <v>14219</v>
       </c>
     </row>
     <row r="501" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B501">
-        <v>13649</v>
+        <v>14314</v>
       </c>
     </row>
     <row r="502" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B502">
-        <v>13713</v>
+        <v>14619</v>
       </c>
     </row>
     <row r="503" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B503">
-        <v>14062</v>
+        <v>15185</v>
       </c>
     </row>
     <row r="504" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B504">
-        <v>14064</v>
+        <v>15218</v>
       </c>
     </row>
     <row r="505" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B505">
-        <v>14083</v>
+        <v>15234</v>
       </c>
     </row>
     <row r="506" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B506">
-        <v>14114</v>
+        <v>15248</v>
       </c>
     </row>
     <row r="507" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B507">
-        <v>14219</v>
+        <v>15251</v>
       </c>
     </row>
     <row r="508" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B508">
-        <v>14314</v>
+        <v>15364</v>
       </c>
     </row>
     <row r="509" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B509">
-        <v>14619</v>
+        <v>15378</v>
       </c>
     </row>
     <row r="510" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B510">
-        <v>15185</v>
+        <v>15499</v>
       </c>
     </row>
     <row r="511" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B511">
-        <v>15218</v>
+        <v>15944</v>
       </c>
     </row>
     <row r="512" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B512">
-        <v>15234</v>
+        <v>16202</v>
       </c>
     </row>
     <row r="513" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B513">
-        <v>15248</v>
+        <v>16542</v>
       </c>
     </row>
     <row r="514" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B514">
-        <v>15251</v>
+        <v>16600</v>
       </c>
     </row>
     <row r="515" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B515">
-        <v>15364</v>
+        <v>16647</v>
       </c>
     </row>
     <row r="516" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B516">
-        <v>15378</v>
+        <v>16653</v>
       </c>
     </row>
     <row r="517" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B517">
-        <v>15499</v>
+        <v>16667</v>
       </c>
     </row>
     <row r="518" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B518">
-        <v>15944</v>
+        <v>16782</v>
       </c>
     </row>
     <row r="519" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B519">
-        <v>16202</v>
+        <v>16819</v>
       </c>
     </row>
     <row r="520" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B520">
-        <v>16542</v>
+        <v>16842</v>
       </c>
     </row>
     <row r="521" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B521">
-        <v>16600</v>
+        <v>16870</v>
       </c>
     </row>
     <row r="522" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B522">
-        <v>16647</v>
+        <v>17096</v>
       </c>
     </row>
     <row r="523" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B523">
-        <v>16653</v>
+        <v>17126</v>
       </c>
     </row>
     <row r="524" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B524">
-        <v>16667</v>
+        <v>17131</v>
       </c>
     </row>
     <row r="525" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B525">
-        <v>16782</v>
+        <v>17151</v>
       </c>
     </row>
     <row r="526" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B526">
-        <v>16819</v>
+        <v>17342</v>
       </c>
     </row>
     <row r="527" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B527">
-        <v>16842</v>
+        <v>17829</v>
       </c>
     </row>
     <row r="528" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B528">
-        <v>16870</v>
+        <v>18008</v>
       </c>
     </row>
     <row r="529" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B529">
-        <v>17096</v>
+        <v>18030</v>
       </c>
     </row>
     <row r="530" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B530">
-        <v>17126</v>
+        <v>18033</v>
       </c>
     </row>
     <row r="531" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B531">
-        <v>17131</v>
+        <v>18128</v>
       </c>
     </row>
     <row r="532" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B532">
-        <v>17151</v>
+        <v>18591</v>
       </c>
     </row>
     <row r="533" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B533">
-        <v>17342</v>
+        <v>18612</v>
       </c>
     </row>
     <row r="534" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B534">
-        <v>17829</v>
+        <v>18706</v>
       </c>
     </row>
     <row r="535" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B535">
-        <v>18008</v>
+        <v>18739</v>
       </c>
     </row>
     <row r="536" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B536">
-        <v>18030</v>
+        <v>19127</v>
       </c>
     </row>
     <row r="537" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B537">
-        <v>18033</v>
+        <v>19130</v>
       </c>
     </row>
     <row r="538" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B538">
-        <v>18128</v>
+        <v>19211</v>
       </c>
     </row>
     <row r="539" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B539">
-        <v>18591</v>
+        <v>19215</v>
       </c>
     </row>
     <row r="540" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B540">
-        <v>18612</v>
+        <v>19217</v>
       </c>
     </row>
     <row r="541" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B541">
-        <v>18706</v>
+        <v>19225</v>
       </c>
     </row>
     <row r="542" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B542">
-        <v>18739</v>
+        <v>19353</v>
       </c>
     </row>
     <row r="543" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B543">
-        <v>19127</v>
+        <v>19885</v>
       </c>
     </row>
     <row r="544" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B544">
-        <v>19130</v>
+        <v>20383</v>
       </c>
     </row>
     <row r="545" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B545">
-        <v>19211</v>
+        <v>20583</v>
       </c>
     </row>
     <row r="546" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B546">
-        <v>19215</v>
+        <v>20613</v>
       </c>
     </row>
     <row r="547" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B547">
-        <v>19217</v>
+        <v>20683</v>
       </c>
     </row>
     <row r="548" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B548">
-        <v>19225</v>
+        <v>20692</v>
       </c>
     </row>
     <row r="549" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B549">
-        <v>19353</v>
+        <v>20807</v>
       </c>
     </row>
     <row r="550" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B550">
-        <v>19885</v>
+        <v>20848</v>
       </c>
     </row>
     <row r="551" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B551">
-        <v>20383</v>
+        <v>20997</v>
       </c>
     </row>
     <row r="552" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B552">
-        <v>20583</v>
+        <v>21345</v>
       </c>
     </row>
     <row r="553" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B553">
-        <v>20613</v>
+        <v>21417</v>
       </c>
     </row>
     <row r="554" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B554">
-        <v>20683</v>
+        <v>21423</v>
       </c>
     </row>
     <row r="555" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B555">
-        <v>20692</v>
+        <v>21677</v>
       </c>
     </row>
     <row r="556" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B556">
-        <v>20807</v>
+        <v>21803</v>
       </c>
     </row>
     <row r="557" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B557">
-        <v>20848</v>
+        <v>21809</v>
       </c>
     </row>
     <row r="558" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B558">
-        <v>20997</v>
+        <v>21821</v>
       </c>
     </row>
     <row r="559" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B559">
-        <v>21345</v>
+        <v>21888</v>
       </c>
     </row>
     <row r="560" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B560">
-        <v>21417</v>
+        <v>21894</v>
       </c>
     </row>
     <row r="561" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B561">
-        <v>21423</v>
+        <v>22059</v>
       </c>
     </row>
     <row r="562" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B562">
-        <v>21677</v>
+        <v>22160</v>
       </c>
     </row>
     <row r="563" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B563">
-        <v>21803</v>
+        <v>22228</v>
       </c>
     </row>
     <row r="564" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B564">
-        <v>21809</v>
+        <v>22289</v>
       </c>
     </row>
     <row r="565" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B565">
-        <v>21821</v>
+        <v>22408</v>
       </c>
     </row>
     <row r="566" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B566">
-        <v>21888</v>
+        <v>22418</v>
       </c>
     </row>
     <row r="567" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B567">
-        <v>21894</v>
+        <v>22601</v>
       </c>
     </row>
     <row r="568" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B568">
-        <v>22059</v>
+        <v>22803</v>
       </c>
     </row>
     <row r="569" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B569">
-        <v>22160</v>
+        <v>22897</v>
       </c>
     </row>
     <row r="570" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B570">
-        <v>22228</v>
+        <v>22943</v>
       </c>
     </row>
     <row r="571" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B571">
-        <v>22289</v>
+        <v>23028</v>
       </c>
     </row>
     <row r="572" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B572">
-        <v>22408</v>
+        <v>23030</v>
       </c>
     </row>
     <row r="573" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B573">
-        <v>22418</v>
+        <v>23077</v>
       </c>
     </row>
     <row r="574" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B574">
-        <v>22601</v>
+        <v>23089</v>
       </c>
     </row>
     <row r="575" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B575">
-        <v>22803</v>
+        <v>23135</v>
       </c>
     </row>
     <row r="576" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B576">
-        <v>22897</v>
+        <v>23136</v>
       </c>
     </row>
     <row r="577" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B577">
-        <v>22943</v>
+        <v>23265</v>
       </c>
     </row>
     <row r="578" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B578">
-        <v>23028</v>
+        <v>23314</v>
       </c>
     </row>
     <row r="579" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B579">
-        <v>23030</v>
+        <v>23326</v>
       </c>
     </row>
     <row r="580" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B580">
-        <v>23077</v>
+        <v>23327</v>
       </c>
     </row>
     <row r="581" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B581">
-        <v>23089</v>
+        <v>23365</v>
       </c>
     </row>
     <row r="582" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B582">
-        <v>23135</v>
+        <v>23405</v>
       </c>
     </row>
     <row r="583" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B583">
-        <v>23136</v>
+        <v>23410</v>
       </c>
     </row>
     <row r="584" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B584">
-        <v>23265</v>
+        <v>23411</v>
       </c>
     </row>
     <row r="585" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B585">
-        <v>23314</v>
+        <v>23476</v>
       </c>
     </row>
     <row r="586" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B586">
-        <v>23326</v>
+        <v>23512</v>
       </c>
     </row>
     <row r="587" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B587">
-        <v>23327</v>
+        <v>23531</v>
       </c>
     </row>
     <row r="588" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B588">
-        <v>23365</v>
+        <v>23569</v>
       </c>
     </row>
     <row r="589" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B589">
-        <v>23405</v>
+        <v>23582</v>
       </c>
     </row>
     <row r="590" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B590">
-        <v>23410</v>
+        <v>23613</v>
       </c>
     </row>
     <row r="591" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B591">
-        <v>23411</v>
+        <v>23939</v>
       </c>
     </row>
     <row r="592" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B592">
-        <v>23476</v>
+        <v>24136</v>
       </c>
     </row>
     <row r="593" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B593">
-        <v>23512</v>
+        <v>24323</v>
       </c>
     </row>
     <row r="594" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B594">
-        <v>23531</v>
+        <v>24914</v>
       </c>
     </row>
     <row r="595" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B595">
-        <v>23569</v>
+        <v>25353</v>
       </c>
     </row>
     <row r="596" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B596">
-        <v>23582</v>
+        <v>25491</v>
       </c>
     </row>
     <row r="597" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B597">
-        <v>23613</v>
+        <v>25664</v>
       </c>
     </row>
     <row r="598" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B598">
-        <v>23939</v>
+        <v>25735</v>
       </c>
     </row>
     <row r="599" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B599">
-        <v>24136</v>
+        <v>25776</v>
       </c>
     </row>
     <row r="600" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B600">
-        <v>24323</v>
+        <v>25803</v>
       </c>
     </row>
     <row r="601" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B601">
-        <v>24914</v>
+        <v>25828</v>
       </c>
     </row>
     <row r="602" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B602">
-        <v>25353</v>
+        <v>25852</v>
       </c>
     </row>
     <row r="603" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B603">
-        <v>25491</v>
+        <v>25855</v>
       </c>
     </row>
     <row r="604" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B604">
-        <v>25664</v>
+        <v>25942</v>
       </c>
     </row>
     <row r="605" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B605">
-        <v>25735</v>
+        <v>26018</v>
       </c>
     </row>
     <row r="606" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B606">
-        <v>25776</v>
+        <v>26407</v>
       </c>
     </row>
     <row r="607" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B607">
-        <v>25803</v>
+        <v>26413</v>
       </c>
     </row>
     <row r="608" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B608">
-        <v>25828</v>
+        <v>26564</v>
       </c>
     </row>
     <row r="609" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B609">
-        <v>25852</v>
+        <v>27035</v>
       </c>
     </row>
     <row r="610" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B610">
-        <v>25855</v>
+        <v>27041</v>
       </c>
     </row>
     <row r="611" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B611">
-        <v>25942</v>
+        <v>27113</v>
       </c>
     </row>
     <row r="612" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B612">
-        <v>26018</v>
+        <v>27122</v>
       </c>
     </row>
     <row r="613" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B613">
-        <v>26407</v>
+        <v>27161</v>
       </c>
     </row>
     <row r="614" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B614">
-        <v>26413</v>
+        <v>27165</v>
       </c>
     </row>
     <row r="615" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B615">
-        <v>26564</v>
+        <v>27250</v>
       </c>
     </row>
     <row r="616" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B616">
-        <v>27035</v>
+        <v>27436</v>
       </c>
     </row>
     <row r="617" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B617">
-        <v>27041</v>
+        <v>28996</v>
       </c>
     </row>
     <row r="618" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B618">
-        <v>27113</v>
+        <v>29034</v>
       </c>
     </row>
     <row r="619" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B619">
-        <v>27122</v>
+        <v>29109</v>
       </c>
     </row>
     <row r="620" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B620">
-        <v>27161</v>
+        <v>29110</v>
       </c>
     </row>
     <row r="621" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B621">
-        <v>27165</v>
+        <v>29117</v>
       </c>
     </row>
     <row r="622" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B622">
-        <v>27250</v>
+        <v>29128</v>
       </c>
     </row>
     <row r="623" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B623">
-        <v>27436</v>
+        <v>29419</v>
       </c>
     </row>
     <row r="624" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B624">
-        <v>28996</v>
+        <v>29499</v>
       </c>
     </row>
     <row r="625" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B625">
-        <v>29034</v>
+        <v>29560</v>
       </c>
     </row>
     <row r="626" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B626">
-        <v>29109</v>
+        <v>29775</v>
       </c>
     </row>
     <row r="627" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B627">
-        <v>29110</v>
+        <v>29789</v>
       </c>
     </row>
     <row r="628" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B628">
-        <v>29117</v>
+        <v>29803</v>
       </c>
     </row>
     <row r="629" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B629">
-        <v>29128</v>
+        <v>29843</v>
       </c>
     </row>
     <row r="630" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B630">
-        <v>29419</v>
+        <v>30846</v>
       </c>
     </row>
     <row r="631" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B631">
-        <v>29499</v>
+        <v>31554</v>
       </c>
     </row>
     <row r="632" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B632">
-        <v>29560</v>
+        <v>34908</v>
       </c>
     </row>
     <row r="633" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B633">
-        <v>29775</v>
+        <v>37655</v>
       </c>
     </row>
     <row r="634" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B634">
-        <v>29789</v>
+        <v>50616</v>
       </c>
     </row>
     <row r="635" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B635">
-        <v>29803</v>
+        <v>50674</v>
       </c>
     </row>
     <row r="636" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B636">
-        <v>29843</v>
+        <v>50689</v>
       </c>
     </row>
     <row r="637" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B637">
-        <v>30846</v>
+        <v>50848</v>
       </c>
     </row>
     <row r="638" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B638">
-        <v>31554</v>
+        <v>50855</v>
       </c>
     </row>
     <row r="639" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B639">
-        <v>34908</v>
+        <v>51129</v>
       </c>
     </row>
     <row r="640" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B640">
-        <v>37655</v>
+        <v>51147</v>
       </c>
     </row>
     <row r="641" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B641">
-        <v>50616</v>
+        <v>51162</v>
       </c>
     </row>
     <row r="642" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B642">
-        <v>50674</v>
+        <v>51232</v>
       </c>
     </row>
     <row r="643" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B643">
-        <v>50689</v>
+        <v>51270</v>
       </c>
     </row>
     <row r="644" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B644">
-        <v>50848</v>
+        <v>51280</v>
       </c>
     </row>
     <row r="645" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B645">
-        <v>50855</v>
+        <v>51316</v>
       </c>
     </row>
     <row r="646" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B646">
-        <v>51129</v>
+        <v>51361</v>
       </c>
     </row>
     <row r="647" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B647">
-        <v>51147</v>
+        <v>51366</v>
       </c>
     </row>
     <row r="648" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B648">
-        <v>51162</v>
+        <v>51438</v>
       </c>
     </row>
     <row r="649" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B649">
-        <v>51232</v>
+        <v>51450</v>
       </c>
     </row>
     <row r="650" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B650">
-        <v>51270</v>
+        <v>51561</v>
       </c>
     </row>
     <row r="651" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B651">
-        <v>51280</v>
+        <v>51592</v>
       </c>
     </row>
     <row r="652" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B652">
-        <v>51316</v>
+        <v>51684</v>
       </c>
     </row>
     <row r="653" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B653">
-        <v>51361</v>
+        <v>51706</v>
       </c>
     </row>
     <row r="654" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B654">
-        <v>51366</v>
+        <v>51720</v>
       </c>
     </row>
     <row r="655" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B655">
-        <v>51438</v>
+        <v>51741</v>
       </c>
     </row>
     <row r="656" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B656">
-        <v>51450</v>
+        <v>51765</v>
       </c>
     </row>
     <row r="657" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B657">
-        <v>51561</v>
+        <v>53615</v>
       </c>
     </row>
     <row r="658" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B658">
-        <v>51592</v>
+        <v>54139</v>
       </c>
     </row>
     <row r="659" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B659">
-        <v>51684</v>
+        <v>54206</v>
       </c>
     </row>
     <row r="660" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B660">
-        <v>51706</v>
+        <v>54250</v>
       </c>
     </row>
     <row r="661" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B661">
-        <v>51720</v>
+        <v>54315</v>
       </c>
     </row>
     <row r="662" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B662">
-        <v>51741</v>
+        <v>54737</v>
       </c>
     </row>
     <row r="663" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B663">
-        <v>51765</v>
+        <v>54756</v>
       </c>
     </row>
     <row r="664" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B664">
-        <v>53615</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="665" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B665">
-        <v>54139</v>
+        <v>55223</v>
       </c>
     </row>
     <row r="666" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B666">
-        <v>54206</v>
+        <v>55272</v>
       </c>
     </row>
     <row r="667" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B667">
-        <v>54250</v>
+        <v>55290</v>
       </c>
     </row>
     <row r="668" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B668">
-        <v>54315</v>
+        <v>55294</v>
       </c>
     </row>
     <row r="669" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B669">
-        <v>54737</v>
+        <v>55366</v>
       </c>
     </row>
     <row r="670" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B670">
-        <v>54756</v>
+        <v>55384</v>
       </c>
     </row>
     <row r="671" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B671">
-        <v>55000</v>
+        <v>55612</v>
       </c>
     </row>
     <row r="672" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B672">
-        <v>55223</v>
+        <v>55727</v>
       </c>
     </row>
     <row r="673" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B673">
-        <v>55272</v>
+        <v>55742</v>
       </c>
     </row>
     <row r="674" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B674">
-        <v>55290</v>
+        <v>55810</v>
       </c>
     </row>
     <row r="675" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B675">
-        <v>55294</v>
+        <v>55869</v>
       </c>
     </row>
     <row r="676" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B676">
-        <v>55366</v>
+        <v>55966</v>
       </c>
     </row>
     <row r="677" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B677">
-        <v>55384</v>
+        <v>56413</v>
       </c>
     </row>
     <row r="678" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B678">
-        <v>55612</v>
+        <v>56458</v>
       </c>
     </row>
     <row r="679" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B679">
-        <v>55727</v>
+        <v>56637</v>
       </c>
     </row>
     <row r="680" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B680">
-        <v>55742</v>
+        <v>57142</v>
       </c>
     </row>
     <row r="681" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B681">
-        <v>55810</v>
+        <v>57144</v>
       </c>
     </row>
     <row r="682" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B682">
-        <v>55869</v>
+        <v>57167</v>
       </c>
     </row>
     <row r="683" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B683">
-        <v>55966</v>
+        <v>57214</v>
       </c>
     </row>
     <row r="684" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B684">
-        <v>56413</v>
+        <v>57261</v>
       </c>
     </row>
     <row r="685" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B685">
-        <v>56458</v>
+        <v>57326</v>
       </c>
     </row>
     <row r="686" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B686">
-        <v>56637</v>
+        <v>57403</v>
       </c>
     </row>
     <row r="687" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B687">
-        <v>57142</v>
+        <v>57447</v>
       </c>
     </row>
     <row r="688" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B688">
-        <v>57144</v>
+        <v>57509</v>
       </c>
     </row>
     <row r="689" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B689">
-        <v>57167</v>
+        <v>57620</v>
       </c>
     </row>
     <row r="690" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B690">
-        <v>57214</v>
+        <v>57650</v>
       </c>
     </row>
     <row r="691" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B691">
-        <v>57261</v>
+        <v>57758</v>
       </c>
     </row>
     <row r="692" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B692">
-        <v>57326</v>
+        <v>58182</v>
       </c>
     </row>
     <row r="693" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B693">
-        <v>57403</v>
+        <v>58230</v>
       </c>
     </row>
     <row r="694" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B694">
-        <v>57447</v>
+        <v>58495</v>
       </c>
     </row>
     <row r="695" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B695">
-        <v>57509</v>
+        <v>58497</v>
       </c>
     </row>
     <row r="696" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B696">
-        <v>57620</v>
+        <v>58960</v>
       </c>
     </row>
     <row r="697" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B697">
-        <v>57650</v>
+        <v>59086</v>
       </c>
     </row>
     <row r="698" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B698">
-        <v>57758</v>
+        <v>59277</v>
       </c>
     </row>
     <row r="699" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B699">
-        <v>58182</v>
+        <v>59343</v>
       </c>
     </row>
     <row r="700" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B700">
-        <v>58230</v>
+        <v>60412</v>
       </c>
     </row>
     <row r="701" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B701">
-        <v>58495</v>
+        <v>60529</v>
       </c>
     </row>
     <row r="702" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B702">
-        <v>58497</v>
+        <v>60533</v>
       </c>
     </row>
     <row r="703" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B703">
-        <v>58960</v>
+        <v>64083</v>
       </c>
     </row>
     <row r="704" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B704">
-        <v>59086</v>
+        <v>64100</v>
       </c>
     </row>
     <row r="705" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B705">
-        <v>59277</v>
+        <v>64218</v>
       </c>
     </row>
     <row r="706" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B706">
-        <v>59343</v>
+        <v>64321</v>
       </c>
     </row>
     <row r="707" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B707">
-        <v>60412</v>
+        <v>64400</v>
       </c>
     </row>
     <row r="708" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B708">
-        <v>60529</v>
+        <v>64750</v>
       </c>
     </row>
     <row r="709" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B709">
-        <v>60533</v>
+        <v>65975</v>
       </c>
     </row>
     <row r="710" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B710">
-        <v>64083</v>
+        <v>66197</v>
       </c>
     </row>
     <row r="711" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B711">
-        <v>64100</v>
+        <v>68028</v>
       </c>
     </row>
     <row r="712" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B712">
-        <v>64218</v>
+        <v>69601</v>
       </c>
     </row>
     <row r="713" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B713">
-        <v>64321</v>
+        <v>72169</v>
       </c>
     </row>
     <row r="714" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B714">
-        <v>64400</v>
+        <v>72289</v>
       </c>
     </row>
     <row r="715" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B715">
-        <v>64750</v>
+        <v>77976</v>
       </c>
     </row>
     <row r="716" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B716">
-        <v>65975</v>
+        <v>79054</v>
       </c>
     </row>
     <row r="717" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B717">
-        <v>66197</v>
+        <v>79626</v>
       </c>
     </row>
     <row r="718" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B718">
-        <v>68028</v>
+        <v>79718</v>
       </c>
     </row>
     <row r="719" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B719">
-        <v>69601</v>
+        <v>79727</v>
       </c>
     </row>
     <row r="720" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B720">
-        <v>72169</v>
+        <v>79778</v>
       </c>
     </row>
     <row r="721" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B721">
-        <v>72289</v>
+        <v>79805</v>
       </c>
     </row>
     <row r="722" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B722">
-        <v>77976</v>
+        <v>79834</v>
       </c>
     </row>
     <row r="723" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B723">
-        <v>79054</v>
+        <v>79923</v>
       </c>
     </row>
     <row r="724" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B724">
-        <v>79626</v>
+        <v>79977</v>
       </c>
     </row>
     <row r="725" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B725">
-        <v>79718</v>
+        <v>80204</v>
       </c>
     </row>
     <row r="726" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B726">
-        <v>79727</v>
+        <v>80224</v>
       </c>
     </row>
     <row r="727" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B727">
-        <v>79778</v>
+        <v>80306</v>
       </c>
     </row>
     <row r="728" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B728">
-        <v>79805</v>
+        <v>80310</v>
       </c>
     </row>
     <row r="729" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B729">
-        <v>79834</v>
+        <v>80312</v>
       </c>
     </row>
     <row r="730" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B730">
-        <v>79923</v>
+        <v>80854</v>
       </c>
     </row>
     <row r="731" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B731">
-        <v>79977</v>
+        <v>81029</v>
       </c>
     </row>
     <row r="732" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B732">
-        <v>80204</v>
+        <v>81559</v>
       </c>
     </row>
     <row r="733" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B733">
-        <v>80224</v>
+        <v>81686</v>
       </c>
     </row>
     <row r="734" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B734">
-        <v>80306</v>
+        <v>81736</v>
       </c>
     </row>
     <row r="735" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B735">
-        <v>80310</v>
+        <v>81839</v>
       </c>
     </row>
     <row r="736" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B736">
-        <v>80312</v>
+        <v>83394</v>
       </c>
     </row>
     <row r="737" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B737">
-        <v>80854</v>
+        <v>83557</v>
       </c>
     </row>
     <row r="738" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B738">
-        <v>81029</v>
+        <v>83719</v>
       </c>
     </row>
     <row r="739" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B739">
-        <v>81559</v>
+        <v>83737</v>
       </c>
     </row>
     <row r="740" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B740">
-        <v>81686</v>
+        <v>83742</v>
       </c>
     </row>
     <row r="741" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B741">
-        <v>81736</v>
+        <v>84017</v>
       </c>
     </row>
     <row r="742" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B742">
-        <v>81839</v>
+        <v>84148</v>
       </c>
     </row>
     <row r="743" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B743">
-        <v>83394</v>
+        <v>84353</v>
       </c>
     </row>
     <row r="744" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B744">
-        <v>83557</v>
+        <v>84632</v>
       </c>
     </row>
     <row r="745" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B745">
-        <v>83719</v>
+        <v>84654</v>
       </c>
     </row>
     <row r="746" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B746">
-        <v>83737</v>
+        <v>84681</v>
       </c>
     </row>
     <row r="747" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B747">
-        <v>83742</v>
+        <v>84833</v>
       </c>
     </row>
     <row r="748" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B748">
-        <v>84017</v>
+        <v>84868</v>
       </c>
     </row>
     <row r="749" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B749">
-        <v>84148</v>
+        <v>84944</v>
       </c>
     </row>
     <row r="750" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B750">
-        <v>84353</v>
+        <v>84962</v>
       </c>
     </row>
     <row r="751" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B751">
-        <v>84632</v>
+        <v>85272</v>
       </c>
     </row>
     <row r="752" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B752">
-        <v>84654</v>
+        <v>85477</v>
       </c>
     </row>
     <row r="753" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B753">
-        <v>84681</v>
+        <v>90586</v>
       </c>
     </row>
     <row r="754" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B754">
-        <v>84833</v>
+        <v>93185</v>
       </c>
     </row>
     <row r="755" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B755">
-        <v>84868</v>
+        <v>93759</v>
       </c>
     </row>
     <row r="756" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B756">
-        <v>84944</v>
+        <v>93986</v>
       </c>
     </row>
     <row r="757" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B757">
-        <v>84962</v>
+        <v>94175</v>
       </c>
     </row>
     <row r="758" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B758">
-        <v>85272</v>
+        <v>94241</v>
       </c>
     </row>
     <row r="759" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B759">
-        <v>85477</v>
+        <v>97064</v>
       </c>
     </row>
     <row r="760" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B760">
-        <v>90586</v>
+        <v>99375</v>
       </c>
     </row>
     <row r="761" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B761">
-        <v>93185</v>
+        <v>107515</v>
       </c>
     </row>
     <row r="762" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B762">
-        <v>93759</v>
+        <v>107586</v>
       </c>
     </row>
     <row r="763" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B763">
-        <v>93986</v>
+        <v>108079</v>
       </c>
     </row>
     <row r="764" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B764">
-        <v>94175</v>
+        <v>109889</v>
       </c>
     </row>
     <row r="765" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B765">
-        <v>94241</v>
+        <v>112399</v>
       </c>
     </row>
     <row r="766" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B766">
-        <v>97064</v>
+        <v>112597</v>
       </c>
     </row>
     <row r="767" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B767">
-        <v>99375</v>
+        <v>114548</v>
       </c>
     </row>
     <row r="768" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B768">
-        <v>107515</v>
+        <v>114774</v>
       </c>
     </row>
     <row r="769" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B769">
-        <v>107586</v>
+        <v>115426</v>
       </c>
     </row>
     <row r="770" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B770">
-        <v>108079</v>
+        <v>115908</v>
       </c>
     </row>
     <row r="771" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B771">
-        <v>109889</v>
+        <v>116071</v>
       </c>
     </row>
     <row r="772" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B772">
-        <v>112399</v>
+        <v>116490</v>
       </c>
     </row>
     <row r="773" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B773">
-        <v>112597</v>
+        <v>116590</v>
       </c>
     </row>
     <row r="774" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B774">
-        <v>114548</v>
+        <v>116640</v>
       </c>
     </row>
     <row r="775" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B775">
-        <v>114774</v>
+        <v>116844</v>
       </c>
     </row>
     <row r="776" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B776">
-        <v>115426</v>
+        <v>117273</v>
       </c>
     </row>
     <row r="777" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B777">
-        <v>115908</v>
+        <v>124540</v>
       </c>
     </row>
     <row r="778" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B778">
-        <v>116071</v>
+        <v>128209</v>
       </c>
     </row>
     <row r="779" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B779">
-        <v>116490</v>
+        <v>139628</v>
       </c>
     </row>
     <row r="780" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B780">
-        <v>116590</v>
+        <v>140584</v>
       </c>
     </row>
     <row r="781" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B781">
-        <v>116640</v>
+        <v>140828</v>
       </c>
     </row>
     <row r="782" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B782">
-        <v>116844</v>
+        <v>140908</v>
       </c>
     </row>
     <row r="783" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B783">
-        <v>117270</v>
+        <v>146713</v>
       </c>
     </row>
     <row r="784" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B784">
-        <v>117273</v>
+        <v>152559</v>
       </c>
     </row>
     <row r="785" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B785">
-        <v>124540</v>
+        <v>153090</v>
       </c>
     </row>
     <row r="786" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B786">
-        <v>128209</v>
+        <v>155061</v>
       </c>
     </row>
     <row r="787" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B787">
-        <v>139628</v>
+        <v>157310</v>
       </c>
     </row>
     <row r="788" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B788">
-        <v>140584</v>
+        <v>170851</v>
       </c>
     </row>
     <row r="789" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B789">
-        <v>140828</v>
+        <v>192343</v>
       </c>
     </row>
     <row r="790" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B790">
-        <v>140908</v>
+        <v>192345</v>
       </c>
     </row>
     <row r="791" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B791">
-        <v>146713</v>
+        <v>192656</v>
       </c>
     </row>
     <row r="792" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B792">
-        <v>152559</v>
+        <v>196475</v>
       </c>
     </row>
     <row r="793" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B793">
-        <v>153090</v>
+        <v>199974</v>
       </c>
     </row>
     <row r="794" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B794">
-        <v>155061</v>
+        <v>200424</v>
       </c>
     </row>
     <row r="795" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B795">
-        <v>157310</v>
+        <v>200504</v>
       </c>
     </row>
     <row r="796" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B796">
-        <v>170851</v>
+        <v>200933</v>
       </c>
     </row>
     <row r="797" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B797">
-        <v>192343</v>
+        <v>203569</v>
       </c>
     </row>
     <row r="798" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B798">
-        <v>192345</v>
+        <v>218952</v>
       </c>
     </row>
     <row r="799" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B799">
-        <v>192656</v>
+        <v>220930</v>
       </c>
     </row>
     <row r="800" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B800">
-        <v>196475</v>
+        <v>222663</v>
       </c>
     </row>
     <row r="801" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B801">
-        <v>199974</v>
+        <v>223701</v>
       </c>
     </row>
     <row r="802" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B802">
-        <v>200424</v>
+        <v>224143</v>
       </c>
     </row>
     <row r="803" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B803">
-        <v>200504</v>
+        <v>226841</v>
       </c>
     </row>
     <row r="804" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B804">
-        <v>200933</v>
+        <v>246778</v>
       </c>
     </row>
     <row r="805" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B805">
-        <v>203569</v>
+        <v>252837</v>
       </c>
     </row>
     <row r="806" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B806">
-        <v>218952</v>
+        <v>252973</v>
       </c>
     </row>
     <row r="807" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B807">
-        <v>220930</v>
+        <v>253782</v>
       </c>
     </row>
     <row r="808" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B808">
-        <v>222663</v>
+        <v>282089</v>
       </c>
     </row>
     <row r="809" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B809">
-        <v>223701</v>
+        <v>282654</v>
       </c>
     </row>
     <row r="810" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B810">
-        <v>224143</v>
+        <v>283120</v>
       </c>
     </row>
     <row r="811" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B811">
-        <v>226841</v>
+        <v>283131</v>
       </c>
     </row>
     <row r="812" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B812">
-        <v>246778</v>
+        <v>284119</v>
       </c>
     </row>
     <row r="813" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B813">
-        <v>252837</v>
+        <v>285194</v>
       </c>
     </row>
     <row r="814" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B814">
-        <v>252973</v>
+        <v>305918</v>
       </c>
     </row>
     <row r="815" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B815">
-        <v>253782</v>
+        <v>310801</v>
       </c>
     </row>
     <row r="816" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B816">
-        <v>282089</v>
+        <v>311071</v>
       </c>
     </row>
     <row r="817" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B817">
-        <v>282654</v>
+        <v>322012</v>
       </c>
     </row>
     <row r="818" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B818">
-        <v>283120</v>
+        <v>338475</v>
       </c>
     </row>
     <row r="819" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B819">
-        <v>283131</v>
+        <v>339122</v>
       </c>
     </row>
     <row r="820" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B820">
-        <v>284119</v>
+        <v>342977</v>
       </c>
     </row>
     <row r="821" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B821">
-        <v>285194</v>
+        <v>346389</v>
       </c>
     </row>
     <row r="822" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B822">
-        <v>305918</v>
+        <v>348262</v>
       </c>
     </row>
     <row r="823" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B823">
-        <v>310801</v>
+        <v>353156</v>
       </c>
     </row>
     <row r="824" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B824">
-        <v>311071</v>
+        <v>360144</v>
       </c>
     </row>
     <row r="825" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B825">
-        <v>322012</v>
+        <v>363875</v>
       </c>
     </row>
     <row r="826" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B826">
-        <v>333929</v>
+        <v>378938</v>
       </c>
     </row>
     <row r="827" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B827">
-        <v>338475</v>
+        <v>386595</v>
       </c>
     </row>
     <row r="828" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B828">
-        <v>339122</v>
+        <v>387140</v>
       </c>
     </row>
     <row r="829" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B829">
-        <v>342977</v>
+        <v>387148</v>
       </c>
     </row>
     <row r="830" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B830">
-        <v>346389</v>
+        <v>387170</v>
       </c>
     </row>
     <row r="831" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B831">
-        <v>348262</v>
+        <v>387200</v>
       </c>
     </row>
     <row r="832" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B832">
-        <v>353156</v>
+        <v>387217</v>
       </c>
     </row>
     <row r="833" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B833">
-        <v>360144</v>
+        <v>387224</v>
       </c>
     </row>
     <row r="834" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B834">
-        <v>363875</v>
+        <v>387227</v>
       </c>
     </row>
     <row r="835" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B835">
-        <v>378938</v>
+        <v>387236</v>
       </c>
     </row>
     <row r="836" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B836">
-        <v>386595</v>
+        <v>387242</v>
       </c>
     </row>
     <row r="837" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B837">
-        <v>387140</v>
+        <v>387243</v>
       </c>
     </row>
     <row r="838" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B838">
-        <v>387148</v>
+        <v>387893</v>
       </c>
     </row>
     <row r="839" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B839">
-        <v>387170</v>
+        <v>388112</v>
       </c>
     </row>
     <row r="840" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B840">
-        <v>387200</v>
+        <v>391627</v>
       </c>
     </row>
     <row r="841" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B841">
-        <v>387217</v>
+        <v>395655</v>
       </c>
     </row>
     <row r="842" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B842">
-        <v>387224</v>
+        <v>395794</v>
       </c>
     </row>
     <row r="843" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B843">
-        <v>387227</v>
+        <v>395964</v>
       </c>
     </row>
     <row r="844" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B844">
-        <v>387236</v>
+        <v>397667</v>
       </c>
     </row>
     <row r="845" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B845">
-        <v>387242</v>
+        <v>397765</v>
       </c>
     </row>
     <row r="846" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B846">
-        <v>387243</v>
+        <v>403869</v>
       </c>
     </row>
     <row r="847" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B847">
-        <v>387893</v>
+        <v>406135</v>
       </c>
     </row>
     <row r="848" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B848">
-        <v>388112</v>
+        <v>406881</v>
       </c>
     </row>
     <row r="849" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B849">
-        <v>391627</v>
+        <v>406884</v>
       </c>
     </row>
     <row r="850" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B850">
-        <v>395655</v>
+        <v>406890</v>
       </c>
     </row>
     <row r="851" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B851">
-        <v>395794</v>
+        <v>406892</v>
       </c>
     </row>
     <row r="852" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B852">
-        <v>395964</v>
+        <v>406893</v>
       </c>
     </row>
     <row r="853" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B853">
-        <v>397667</v>
+        <v>406894</v>
       </c>
     </row>
     <row r="854" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B854">
-        <v>397765</v>
+        <v>406899</v>
       </c>
     </row>
     <row r="855" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B855">
-        <v>403869</v>
+        <v>406900</v>
       </c>
     </row>
     <row r="856" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B856">
-        <v>406135</v>
+        <v>406902</v>
       </c>
     </row>
     <row r="857" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B857">
-        <v>406881</v>
+        <v>406903</v>
       </c>
     </row>
     <row r="858" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B858">
-        <v>406884</v>
+        <v>406906</v>
       </c>
     </row>
     <row r="859" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B859">
-        <v>406890</v>
+        <v>406908</v>
       </c>
     </row>
     <row r="860" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B860">
-        <v>406892</v>
+        <v>406909</v>
       </c>
     </row>
     <row r="861" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B861">
-        <v>406893</v>
+        <v>406915</v>
       </c>
     </row>
     <row r="862" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B862">
-        <v>406894</v>
+        <v>406919</v>
       </c>
     </row>
     <row r="863" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B863">
-        <v>406899</v>
+        <v>406920</v>
       </c>
     </row>
     <row r="864" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B864">
-        <v>406900</v>
+        <v>406921</v>
       </c>
     </row>
     <row r="865" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B865">
-        <v>406902</v>
+        <v>406924</v>
       </c>
     </row>
     <row r="866" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B866">
-        <v>406903</v>
+        <v>406925</v>
       </c>
     </row>
     <row r="867" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B867">
-        <v>406906</v>
+        <v>406927</v>
       </c>
     </row>
     <row r="868" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B868">
-        <v>406908</v>
+        <v>406933</v>
       </c>
     </row>
     <row r="869" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B869">
-        <v>406909</v>
+        <v>406935</v>
       </c>
     </row>
     <row r="870" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B870">
-        <v>406915</v>
+        <v>406936</v>
       </c>
     </row>
     <row r="871" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B871">
-        <v>406919</v>
+        <v>406937</v>
       </c>
     </row>
     <row r="872" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B872">
-        <v>406920</v>
+        <v>406938</v>
       </c>
     </row>
     <row r="873" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B873">
-        <v>406921</v>
+        <v>406940</v>
       </c>
     </row>
     <row r="874" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B874">
-        <v>406924</v>
+        <v>406942</v>
       </c>
     </row>
     <row r="875" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B875">
-        <v>406925</v>
+        <v>406944</v>
       </c>
     </row>
     <row r="876" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B876">
-        <v>406927</v>
+        <v>406945</v>
       </c>
     </row>
     <row r="877" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B877">
-        <v>406933</v>
+        <v>406947</v>
       </c>
     </row>
     <row r="878" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B878">
-        <v>406935</v>
+        <v>406948</v>
       </c>
     </row>
     <row r="879" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B879">
-        <v>406936</v>
+        <v>406950</v>
       </c>
     </row>
     <row r="880" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B880">
-        <v>406937</v>
+        <v>406952</v>
       </c>
     </row>
     <row r="881" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B881">
-        <v>406938</v>
+        <v>406954</v>
       </c>
     </row>
     <row r="882" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B882">
-        <v>406940</v>
+        <v>406955</v>
       </c>
     </row>
     <row r="883" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B883">
-        <v>406942</v>
+        <v>406958</v>
       </c>
     </row>
     <row r="884" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B884">
-        <v>406944</v>
+        <v>406959</v>
       </c>
     </row>
     <row r="885" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B885">
-        <v>406945</v>
+        <v>406961</v>
       </c>
     </row>
     <row r="886" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B886">
-        <v>406947</v>
+        <v>406962</v>
       </c>
     </row>
     <row r="887" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B887">
-        <v>406948</v>
+        <v>406963</v>
       </c>
     </row>
     <row r="888" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B888">
-        <v>406950</v>
+        <v>406965</v>
       </c>
     </row>
     <row r="889" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B889">
-        <v>406952</v>
+        <v>406966</v>
       </c>
     </row>
     <row r="890" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B890">
-        <v>406954</v>
+        <v>406976</v>
       </c>
     </row>
     <row r="891" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B891">
-        <v>406955</v>
+        <v>406977</v>
       </c>
     </row>
     <row r="892" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B892">
-        <v>406958</v>
+        <v>406979</v>
       </c>
     </row>
     <row r="893" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B893">
-        <v>406959</v>
+        <v>406982</v>
       </c>
     </row>
     <row r="894" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B894">
-        <v>406961</v>
+        <v>406986</v>
       </c>
     </row>
     <row r="895" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B895">
-        <v>406962</v>
+        <v>406987</v>
       </c>
     </row>
     <row r="896" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B896">
-        <v>406963</v>
+        <v>406989</v>
       </c>
     </row>
     <row r="897" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B897">
-        <v>406965</v>
+        <v>406990</v>
       </c>
     </row>
     <row r="898" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B898">
-        <v>406966</v>
+        <v>406993</v>
       </c>
     </row>
     <row r="899" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B899">
-        <v>406976</v>
+        <v>406995</v>
       </c>
     </row>
     <row r="900" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B900">
-        <v>406977</v>
+        <v>406996</v>
       </c>
     </row>
     <row r="901" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B901">
-        <v>406979</v>
+        <v>406998</v>
       </c>
     </row>
     <row r="902" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B902">
-        <v>406982</v>
+        <v>406999</v>
       </c>
     </row>
     <row r="903" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B903">
-        <v>406986</v>
+        <v>407000</v>
       </c>
     </row>
     <row r="904" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B904">
-        <v>406987</v>
+        <v>407001</v>
       </c>
     </row>
     <row r="905" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B905">
-        <v>406989</v>
+        <v>407008</v>
       </c>
     </row>
     <row r="906" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B906">
-        <v>406990</v>
+        <v>407009</v>
       </c>
     </row>
     <row r="907" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B907">
-        <v>406993</v>
+        <v>407011</v>
       </c>
     </row>
     <row r="908" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B908">
-        <v>406995</v>
+        <v>407012</v>
       </c>
     </row>
     <row r="909" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B909">
-        <v>406996</v>
+        <v>407013</v>
       </c>
     </row>
     <row r="910" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B910">
-        <v>406998</v>
+        <v>407014</v>
       </c>
     </row>
     <row r="911" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B911">
-        <v>406999</v>
+        <v>407015</v>
       </c>
     </row>
     <row r="912" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B912">
-        <v>407000</v>
+        <v>407016</v>
       </c>
     </row>
     <row r="913" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B913">
-        <v>407001</v>
+        <v>407017</v>
       </c>
     </row>
     <row r="914" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B914">
-        <v>407008</v>
+        <v>407018</v>
       </c>
     </row>
     <row r="915" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B915">
-        <v>407009</v>
+        <v>407024</v>
       </c>
     </row>
     <row r="916" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B916">
-        <v>407011</v>
+        <v>407026</v>
       </c>
     </row>
     <row r="917" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B917">
-        <v>407012</v>
+        <v>407027</v>
       </c>
     </row>
     <row r="918" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B918">
-        <v>407013</v>
+        <v>407030</v>
       </c>
     </row>
     <row r="919" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B919">
-        <v>407014</v>
+        <v>407031</v>
       </c>
     </row>
     <row r="920" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B920">
-        <v>407015</v>
+        <v>407032</v>
       </c>
     </row>
     <row r="921" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B921">
-        <v>407016</v>
+        <v>407033</v>
       </c>
     </row>
     <row r="922" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B922">
-        <v>407017</v>
+        <v>407035</v>
       </c>
     </row>
     <row r="923" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B923">
-        <v>407018</v>
+        <v>407043</v>
       </c>
     </row>
     <row r="924" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B924">
-        <v>407024</v>
+        <v>407050</v>
       </c>
     </row>
     <row r="925" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B925">
-        <v>407026</v>
+        <v>407053</v>
       </c>
     </row>
     <row r="926" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B926">
-        <v>407027</v>
+        <v>414842</v>
       </c>
     </row>
     <row r="927" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B927">
-        <v>407030</v>
+        <v>419287</v>
       </c>
     </row>
     <row r="928" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B928">
-        <v>407031</v>
+        <v>441951</v>
       </c>
     </row>
     <row r="929" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B929">
-        <v>407032</v>
+        <v>442891</v>
       </c>
     </row>
     <row r="930" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B930">
-        <v>407033</v>
+        <v>442900</v>
       </c>
     </row>
     <row r="931" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B931">
-        <v>407035</v>
+        <v>442903</v>
       </c>
     </row>
     <row r="932" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B932">
-        <v>407043</v>
+        <v>442918</v>
       </c>
     </row>
     <row r="933" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B933">
-        <v>407050</v>
+        <v>442920</v>
       </c>
     </row>
     <row r="934" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B934">
-        <v>407053</v>
+        <v>482339</v>
       </c>
     </row>
     <row r="935" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B935">
-        <v>414842</v>
+        <v>485079</v>
       </c>
     </row>
     <row r="936" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B936">
-        <v>419287</v>
+        <v>488125</v>
       </c>
     </row>
     <row r="937" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B937">
-        <v>441951</v>
+        <v>494323</v>
       </c>
     </row>
     <row r="938" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B938">
-        <v>442891</v>
+        <v>494324</v>
       </c>
     </row>
     <row r="939" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B939">
-        <v>442900</v>
+        <v>494330</v>
       </c>
     </row>
     <row r="940" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B940">
-        <v>442903</v>
+        <v>494331</v>
       </c>
     </row>
     <row r="941" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B941">
-        <v>442918</v>
+        <v>494336</v>
       </c>
     </row>
     <row r="942" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B942">
-        <v>442920</v>
+        <v>495284</v>
       </c>
     </row>
     <row r="943" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B943">
-        <v>482339</v>
+        <v>501099</v>
       </c>
     </row>
     <row r="944" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B944">
-        <v>485079</v>
+        <v>541393</v>
       </c>
     </row>
     <row r="945" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B945">
-        <v>488125</v>
+        <v>554213</v>
       </c>
     </row>
     <row r="946" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B946">
-        <v>494323</v>
+        <v>567858</v>
       </c>
     </row>
     <row r="947" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B947">
-        <v>494324</v>
+        <v>574412</v>
       </c>
     </row>
     <row r="948" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B948">
-        <v>494330</v>
+        <v>574436</v>
       </c>
     </row>
     <row r="949" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B949">
-        <v>494331</v>
+        <v>574442</v>
       </c>
     </row>
     <row r="950" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B950">
-        <v>494336</v>
+        <v>574444</v>
       </c>
     </row>
     <row r="951" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B951">
-        <v>495284</v>
+        <v>574447</v>
       </c>
     </row>
     <row r="952" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B952">
-        <v>501099</v>
+        <v>574452</v>
       </c>
     </row>
     <row r="953" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B953">
-        <v>541393</v>
+        <v>574456</v>
       </c>
     </row>
     <row r="954" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B954">
-        <v>554213</v>
+        <v>574484</v>
       </c>
     </row>
     <row r="955" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B955">
-        <v>567858</v>
+        <v>574492</v>
       </c>
     </row>
     <row r="956" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B956">
-        <v>574412</v>
+        <v>574495</v>
       </c>
     </row>
     <row r="957" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B957">
-        <v>574436</v>
+        <v>574511</v>
       </c>
     </row>
     <row r="958" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B958">
-        <v>574442</v>
+        <v>594842</v>
       </c>
     </row>
     <row r="959" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B959">
-        <v>574444</v>
+        <v>609779</v>
       </c>
     </row>
     <row r="960" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B960">
-        <v>574447</v>
+        <v>642477</v>
       </c>
     </row>
     <row r="961" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B961">
-        <v>574452</v>
+        <v>652995</v>
       </c>
     </row>
     <row r="962" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B962">
-        <v>574456</v>
+        <v>664616</v>
       </c>
     </row>
     <row r="963" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B963">
-        <v>574484</v>
+        <v>693120</v>
       </c>
     </row>
     <row r="964" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B964">
-        <v>574492</v>
+        <v>693158</v>
       </c>
     </row>
     <row r="965" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B965">
-        <v>574495</v>
+        <v>693175</v>
       </c>
     </row>
     <row r="966" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B966">
-        <v>574511</v>
+        <v>693197</v>
       </c>
     </row>
     <row r="967" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B967">
-        <v>594842</v>
+        <v>693201</v>
       </c>
     </row>
     <row r="968" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B968">
-        <v>609779</v>
+        <v>693215</v>
       </c>
     </row>
     <row r="969" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B969">
-        <v>642477</v>
+        <v>693223</v>
       </c>
     </row>
     <row r="970" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B970">
-        <v>652995</v>
+        <v>693224</v>
       </c>
     </row>
     <row r="971" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B971">
-        <v>664616</v>
+        <v>693231</v>
       </c>
     </row>
     <row r="972" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B972">
-        <v>693120</v>
+        <v>693235</v>
       </c>
     </row>
     <row r="973" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B973">
-        <v>693158</v>
+        <v>723836</v>
       </c>
     </row>
     <row r="974" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B974">
-        <v>693175</v>
+        <v>723920</v>
       </c>
     </row>
     <row r="975" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B975">
-        <v>693197</v>
+        <v>723932</v>
       </c>
     </row>
     <row r="976" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B976">
-        <v>693201</v>
+        <v>723944</v>
       </c>
     </row>
     <row r="977" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B977">
-        <v>693215</v>
+        <v>723964</v>
       </c>
     </row>
     <row r="978" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B978">
-        <v>693223</v>
+        <v>724025</v>
       </c>
     </row>
     <row r="979" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B979">
-        <v>693224</v>
+        <v>724033</v>
       </c>
     </row>
     <row r="980" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B980">
-        <v>693231</v>
+        <v>728695</v>
       </c>
     </row>
     <row r="981" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B981">
-        <v>693235</v>
+        <v>729230</v>
       </c>
     </row>
     <row r="982" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B982">
-        <v>723836</v>
+        <v>768216</v>
       </c>
     </row>
     <row r="983" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B983">
-        <v>723920</v>
+        <v>768219</v>
       </c>
     </row>
     <row r="984" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B984">
-        <v>723932</v>
+        <v>828475</v>
       </c>
     </row>
     <row r="985" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B985">
-        <v>723944</v>
+        <v>944566</v>
       </c>
     </row>
     <row r="986" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B986">
-        <v>723964</v>
+        <v>951475</v>
       </c>
     </row>
     <row r="987" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B987">
-        <v>724025</v>
+        <v>2828293</v>
       </c>
     </row>
     <row r="988" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B988">
-        <v>724033</v>
+        <v>2829895</v>
       </c>
     </row>
     <row r="989" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B989">
-        <v>728695</v>
+        <v>4835966</v>
       </c>
     </row>
     <row r="990" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B990">
-        <v>729230</v>
+        <v>17494242</v>
       </c>
     </row>
     <row r="991" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B991">
-        <v>768216</v>
+        <v>100008645</v>
       </c>
     </row>
     <row r="992" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B992">
-        <v>768219</v>
+        <v>100033819</v>
       </c>
     </row>
     <row r="993" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B993">
-        <v>828475</v>
+        <v>100049712</v>
       </c>
     </row>
     <row r="994" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B994">
-        <v>944566</v>
+        <v>100124700</v>
       </c>
     </row>
     <row r="995" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B995">
-        <v>951475</v>
+        <v>100126297</v>
       </c>
     </row>
     <row r="996" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B996">
-        <v>2828293</v>
+        <v>100126306</v>
       </c>
     </row>
     <row r="997" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B997">
-        <v>2829895</v>
+        <v>100126309</v>
       </c>
     </row>
     <row r="998" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B998">
-        <v>4835966</v>
+        <v>100130155</v>
       </c>
     </row>
     <row r="999" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B999">
-        <v>17494242</v>
+        <v>100302203</v>
       </c>
     </row>
     <row r="1000" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1000">
-        <v>100008645</v>
+        <v>100302213</v>
       </c>
     </row>
     <row r="1001" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1001">
-        <v>100033819</v>
+        <v>100302242</v>
       </c>
     </row>
     <row r="1002" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1002">
-        <v>100049712</v>
+        <v>100303491</v>
       </c>
     </row>
     <row r="1003" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1003">
-        <v>100124700</v>
+        <v>100313972</v>
       </c>
     </row>
     <row r="1004" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1004">
-        <v>100126297</v>
+        <v>100314000</v>
       </c>
     </row>
     <row r="1005" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1005">
-        <v>100126306</v>
+        <v>100314011</v>
       </c>
     </row>
     <row r="1006" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1006">
-        <v>100126309</v>
+        <v>100314153</v>
       </c>
     </row>
     <row r="1007" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1007">
-        <v>100130155</v>
+        <v>100314161</v>
       </c>
     </row>
     <row r="1008" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1008">
-        <v>100302203</v>
+        <v>100314194</v>
       </c>
     </row>
     <row r="1009" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1009">
-        <v>100302213</v>
+        <v>100314230</v>
       </c>
     </row>
     <row r="1010" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1010">
-        <v>100302242</v>
+        <v>100337618</v>
       </c>
     </row>
     <row r="1011" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1011">
-        <v>100303491</v>
+        <v>100338818</v>
       </c>
     </row>
     <row r="1012" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1012">
-        <v>100313972</v>
+        <v>100507436</v>
       </c>
     </row>
     <row r="1013" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1013">
-        <v>100314000</v>
+        <v>100642175</v>
       </c>
     </row>
     <row r="1014" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1014">
-        <v>100314011</v>
+        <v>100855651</v>
       </c>
     </row>
     <row r="1015" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1015">
-        <v>100314153</v>
+        <v>100855667</v>
       </c>
     </row>
     <row r="1016" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1016">
-        <v>100314161</v>
+        <v>100885779</v>
       </c>
     </row>
     <row r="1017" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1017">
-        <v>100314194</v>
+        <v>100887755</v>
       </c>
     </row>
     <row r="1018" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1018">
-        <v>100314230</v>
+        <v>101241892</v>
       </c>
     </row>
     <row r="1019" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1019">
-        <v>100337618</v>
+        <v>101927574</v>
       </c>
     </row>
     <row r="1020" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1020">
-        <v>100338818</v>
-      </c>
-    </row>
-    <row r="1021" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1021">
-        <v>100507436</v>
-      </c>
-    </row>
-    <row r="1022" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1022">
-        <v>100642175</v>
-      </c>
-    </row>
-    <row r="1023" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1023">
-        <v>100855651</v>
-      </c>
-    </row>
-    <row r="1024" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1024">
-        <v>100855667</v>
-      </c>
-    </row>
-    <row r="1025" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1025">
-        <v>100885779</v>
-      </c>
-    </row>
-    <row r="1026" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1026">
-        <v>100887755</v>
-      </c>
-    </row>
-    <row r="1027" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1027">
-        <v>101241892</v>
-      </c>
-    </row>
-    <row r="1028" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1028">
-        <v>101927574</v>
-      </c>
-    </row>
-    <row r="1029" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1029">
         <v>102465831</v>
       </c>
     </row>
